--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Spp1-Itgb5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Spp1-Itgb5.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>282.7879796666667</v>
+        <v>0.04941833333333333</v>
       </c>
       <c r="H2">
-        <v>848.3639390000001</v>
+        <v>0.148255</v>
       </c>
       <c r="I2">
-        <v>0.9674521741401267</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="J2">
-        <v>0.9674521741401266</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.126464333333334</v>
+        <v>9.101794333333332</v>
       </c>
       <c r="N2">
-        <v>18.379393</v>
+        <v>27.305383</v>
       </c>
       <c r="O2">
-        <v>0.1081098818071741</v>
+        <v>0.1526015110517656</v>
       </c>
       <c r="P2">
-        <v>0.1081098818071741</v>
+        <v>0.1526015110517656</v>
       </c>
       <c r="Q2">
-        <v>1732.490471323225</v>
+        <v>0.4497955062961111</v>
       </c>
       <c r="R2">
-        <v>15592.41424190903</v>
+        <v>4.048159556664999</v>
       </c>
       <c r="S2">
-        <v>0.1045911402003827</v>
+        <v>0.00078857580460399</v>
       </c>
       <c r="T2">
-        <v>0.1045911402003827</v>
+        <v>0.00078857580460399</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>282.7879796666667</v>
+        <v>0.04941833333333333</v>
       </c>
       <c r="H3">
-        <v>848.3639390000001</v>
+        <v>0.148255</v>
       </c>
       <c r="I3">
-        <v>0.9674521741401267</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="J3">
-        <v>0.9674521741401266</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>107.212106</v>
       </c>
       <c r="O3">
-        <v>0.6306349784216607</v>
+        <v>0.5991759712230392</v>
       </c>
       <c r="P3">
-        <v>0.6306349784216608</v>
+        <v>0.5991759712230392</v>
       </c>
       <c r="Q3">
-        <v>10106.0982838495</v>
+        <v>1.766081197225556</v>
       </c>
       <c r="R3">
-        <v>90954.88455464554</v>
+        <v>15.89473077503</v>
       </c>
       <c r="S3">
-        <v>0.6101091809628476</v>
+        <v>0.003096271264616148</v>
       </c>
       <c r="T3">
-        <v>0.6101091809628476</v>
+        <v>0.003096271264616148</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>282.7879796666667</v>
+        <v>0.04941833333333333</v>
       </c>
       <c r="H4">
-        <v>848.3639390000001</v>
+        <v>0.148255</v>
       </c>
       <c r="I4">
-        <v>0.9674521741401267</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="J4">
-        <v>0.9674521741401266</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>44.415097</v>
       </c>
       <c r="O4">
-        <v>0.2612551397711651</v>
+        <v>0.2482225177251951</v>
       </c>
       <c r="P4">
-        <v>0.2612551397711651</v>
+        <v>0.2482225177251951</v>
       </c>
       <c r="Q4">
-        <v>4186.68518244301</v>
+        <v>0.7316400228594445</v>
       </c>
       <c r="R4">
-        <v>37680.16664198709</v>
+        <v>6.584760205735001</v>
       </c>
       <c r="S4">
-        <v>0.2527518529768964</v>
+        <v>0.001282702053779625</v>
       </c>
       <c r="T4">
-        <v>0.2527518529768963</v>
+        <v>0.001282702053779625</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>23.14409</v>
       </c>
       <c r="I5">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="J5">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.126464333333334</v>
+        <v>9.101794333333332</v>
       </c>
       <c r="N5">
-        <v>18.379393</v>
+        <v>27.305383</v>
       </c>
       <c r="O5">
-        <v>0.1081098818071741</v>
+        <v>0.1526015110517656</v>
       </c>
       <c r="P5">
-        <v>0.1081098818071741</v>
+        <v>0.1526015110517656</v>
       </c>
       <c r="Q5">
-        <v>47.26381397081889</v>
+        <v>70.21758240405222</v>
       </c>
       <c r="R5">
-        <v>425.37432573737</v>
+        <v>631.95824163647</v>
       </c>
       <c r="S5">
-        <v>0.002853335285388971</v>
+        <v>0.123104579228877</v>
       </c>
       <c r="T5">
-        <v>0.00285333528538897</v>
+        <v>0.123104579228877</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>23.14409</v>
       </c>
       <c r="I6">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="J6">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>107.212106</v>
       </c>
       <c r="O6">
-        <v>0.6306349784216607</v>
+        <v>0.5991759712230392</v>
       </c>
       <c r="P6">
-        <v>0.6306349784216608</v>
+        <v>0.5991759712230392</v>
       </c>
       <c r="Q6">
         <v>275.7029589281711</v>
@@ -818,10 +818,10 @@
         <v>2481.32663035354</v>
       </c>
       <c r="S6">
-        <v>0.01664429750594389</v>
+        <v>0.4833589478445243</v>
       </c>
       <c r="T6">
-        <v>0.01664429750594389</v>
+        <v>0.4833589478445243</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>23.14409</v>
       </c>
       <c r="I7">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="J7">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>44.415097</v>
       </c>
       <c r="O7">
-        <v>0.2612551397711651</v>
+        <v>0.2482225177251951</v>
       </c>
       <c r="P7">
-        <v>0.2612551397711651</v>
+        <v>0.2482225177251951</v>
       </c>
       <c r="Q7">
         <v>114.2163335918589</v>
@@ -880,10 +880,10 @@
         <v>1027.94700232673</v>
       </c>
       <c r="S7">
-        <v>0.006895285577389515</v>
+        <v>0.2002426344869346</v>
       </c>
       <c r="T7">
-        <v>0.006895285577389513</v>
+        <v>0.2002426344869346</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>5.397271</v>
       </c>
       <c r="I8">
-        <v>0.006154907491150983</v>
+        <v>0.1881262893166642</v>
       </c>
       <c r="J8">
-        <v>0.006154907491150982</v>
+        <v>0.1881262893166643</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.126464333333334</v>
+        <v>9.101794333333332</v>
       </c>
       <c r="N8">
-        <v>18.379393</v>
+        <v>27.305383</v>
       </c>
       <c r="O8">
-        <v>0.1081098818071741</v>
+        <v>0.1526015110517656</v>
       </c>
       <c r="P8">
-        <v>0.1081098818071741</v>
+        <v>0.1526015110517656</v>
       </c>
       <c r="Q8">
-        <v>11.02206275961144</v>
+        <v>16.37495020108811</v>
       </c>
       <c r="R8">
-        <v>99.198564836503</v>
+        <v>147.374551809793</v>
       </c>
       <c r="S8">
-        <v>0.0006654063214024233</v>
+        <v>0.02870835601828459</v>
       </c>
       <c r="T8">
-        <v>0.0006654063214024233</v>
+        <v>0.02870835601828459</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>5.397271</v>
       </c>
       <c r="I9">
-        <v>0.006154907491150983</v>
+        <v>0.1881262893166642</v>
       </c>
       <c r="J9">
-        <v>0.006154907491150982</v>
+        <v>0.1881262893166643</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>107.212106</v>
       </c>
       <c r="O9">
-        <v>0.6306349784216607</v>
+        <v>0.5991759712230392</v>
       </c>
       <c r="P9">
-        <v>0.6306349784216608</v>
+        <v>0.5991759712230392</v>
       </c>
       <c r="Q9">
         <v>64.29475450696955</v>
@@ -1004,10 +1004,10 @@
         <v>578.6527905627261</v>
       </c>
       <c r="S9">
-        <v>0.003881499952869318</v>
+        <v>0.1127207521138988</v>
       </c>
       <c r="T9">
-        <v>0.003881499952869318</v>
+        <v>0.1127207521138988</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>5.397271</v>
       </c>
       <c r="I10">
-        <v>0.006154907491150983</v>
+        <v>0.1881262893166642</v>
       </c>
       <c r="J10">
-        <v>0.006154907491150982</v>
+        <v>0.1881262893166643</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>44.415097</v>
       </c>
       <c r="O10">
-        <v>0.2612551397711651</v>
+        <v>0.2482225177251951</v>
       </c>
       <c r="P10">
-        <v>0.2612551397711651</v>
+        <v>0.2482225177251951</v>
       </c>
       <c r="Q10">
         <v>26.63559055558745</v>
@@ -1066,10 +1066,10 @@
         <v>239.720315000287</v>
       </c>
       <c r="S10">
-        <v>0.001608001216879241</v>
+        <v>0.04669718118448087</v>
       </c>
       <c r="T10">
-        <v>0.001608001216879241</v>
+        <v>0.04669718118448087</v>
       </c>
     </row>
   </sheetData>
